--- a/DataTable/bin/Debug/Excel/Hero.xlsx
+++ b/DataTable/bin/Debug/Excel/Hero.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA746092-D815-48BC-872A-ABAB073371A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2085" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="166">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,10 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,31 +506,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-2-3-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string-float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk:10,def:5,spd:3</t>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2</t>
+  </si>
+  <si>
+    <t>1,1,1,3</t>
+  </si>
+  <si>
+    <t>1,1,1,4</t>
+  </si>
+  <si>
+    <t>1,1,1,5</t>
+  </si>
+  <si>
+    <t>1,1,1,6</t>
+  </si>
+  <si>
+    <t>1,1,1,7</t>
+  </si>
+  <si>
+    <t>1,1,1,8</t>
+  </si>
+  <si>
+    <t>1,1,1,9</t>
+  </si>
+  <si>
+    <t>1,1,1,10</t>
+  </si>
+  <si>
+    <t>1,1,1,11</t>
+  </si>
+  <si>
+    <t>1,1,1,12</t>
+  </si>
+  <si>
+    <t>1,1,1,13</t>
+  </si>
+  <si>
+    <t>1,1,1,14</t>
+  </si>
+  <si>
+    <t>1,1,1,15</t>
+  </si>
+  <si>
+    <t>1,1,1,16</t>
+  </si>
+  <si>
+    <t>1,1,1,17</t>
+  </si>
+  <si>
+    <t>1,1,1,18</t>
+  </si>
+  <si>
+    <t>string,float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldCol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kv_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:Sword,2:Magic,3:Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,6 +1037,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -979,7 +1095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1054,6 +1170,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1089,6 +1222,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1264,817 +1414,1277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N24" sqref="A24:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="9" style="3"/>
-    <col min="14" max="14" width="21.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="52"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="11.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3">
+        <v>15</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>4</v>
+      </c>
+      <c r="R6" s="3">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>164</v>
+      </c>
+      <c r="T6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3">
+        <v>15</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4</v>
+      </c>
+      <c r="R7" s="3">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>164</v>
+      </c>
+      <c r="T7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3">
+        <v>15</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>164</v>
+      </c>
+      <c r="T8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>15</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>164</v>
+      </c>
+      <c r="T9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3">
+        <v>15</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>164</v>
+      </c>
+      <c r="T10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>15</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>4</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>164</v>
+      </c>
+      <c r="T11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>164</v>
+      </c>
+      <c r="T12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>4</v>
+      </c>
+      <c r="R13" s="3">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>164</v>
+      </c>
+      <c r="T13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6</v>
+      </c>
+      <c r="N14" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>164</v>
+      </c>
+      <c r="T14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>7</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="R15" s="3">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>164</v>
+      </c>
+      <c r="T15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>4</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4</v>
+      </c>
+      <c r="R16" s="3">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s">
+        <v>164</v>
+      </c>
+      <c r="T16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>13</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s">
+        <v>164</v>
+      </c>
+      <c r="T17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3">
+        <v>7</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s">
+        <v>164</v>
+      </c>
+      <c r="T18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>11</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>4</v>
+      </c>
+      <c r="R19" s="3">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s">
+        <v>164</v>
+      </c>
+      <c r="T19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>11</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4</v>
+      </c>
+      <c r="N20" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>164</v>
+      </c>
+      <c r="T20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s">
+        <v>164</v>
+      </c>
+      <c r="T21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3">
-        <v>15</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>12</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s">
+        <v>164</v>
+      </c>
+      <c r="T22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>12</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3">
-        <v>15</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
-        <v>15</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
+      <c r="N23" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3">
-        <v>15</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
-        <v>15</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>14</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3">
-        <v>6</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>13</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3">
-        <v>7</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>11</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>12</v>
-      </c>
-      <c r="J19" s="3">
-        <v>8</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>12</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
+      <c r="R23" s="3">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s">
+        <v>164</v>
+      </c>
+      <c r="T23" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2085,14 +2695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -2102,7 +2712,7 @@
     <col min="6" max="17" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="H1" s="18" t="s">
         <v>59</v>
       </c>
@@ -2149,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>38</v>
       </c>
@@ -2201,7 +2811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>0</v>
       </c>
@@ -2253,7 +2863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -2307,7 +2917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>2</v>
       </c>
@@ -2359,7 +2969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -2413,7 +3023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>4</v>
       </c>
@@ -2465,7 +3075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -2517,7 +3127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -2569,7 +3179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>7</v>
       </c>
@@ -2623,10 +3233,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
@@ -2634,7 +3244,7 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>50</v>
       </c>
@@ -2684,7 +3294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>0</v>
       </c>
@@ -2736,7 +3346,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -2783,7 +3393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -2835,7 +3445,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>3</v>
       </c>
@@ -2870,7 +3480,7 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>4</v>
       </c>
@@ -2899,7 +3509,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>63</v>
       </c>
@@ -2907,7 +3517,7 @@
       <c r="C21" s="11"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
@@ -2918,7 +3528,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
@@ -2935,7 +3545,7 @@
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
@@ -2952,7 +3562,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>72</v>
       </c>
@@ -2968,24 +3578,24 @@
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="51" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="49"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="49"/>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="49"/>
     </row>
   </sheetData>

--- a/DataTable/bin/Debug/Excel/Hero.xlsx
+++ b/DataTable/bin/Debug/Excel/Hero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA746092-D815-48BC-872A-ABAB073371A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A777E74-BADF-44BB-B8CE-DC80F4ADF22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,69 +52,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0_Kight</t>
-  </si>
-  <si>
-    <t>1_Archer</t>
-  </si>
-  <si>
-    <t>2_Magician</t>
-  </si>
-  <si>
-    <t>3_Healer</t>
-  </si>
-  <si>
-    <t>4_Thief</t>
-  </si>
-  <si>
-    <t>5_Defender</t>
-  </si>
-  <si>
-    <t>6_Hunter</t>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7_Witch</t>
-  </si>
-  <si>
-    <t>9_Assasin</t>
-  </si>
-  <si>
-    <t>8_Bishop</t>
-  </si>
-  <si>
-    <t>Unit001</t>
-  </si>
-  <si>
-    <t>Unit002</t>
-  </si>
-  <si>
-    <t>Unit003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit008</t>
-  </si>
-  <si>
     <t>Sword</t>
   </si>
   <si>
@@ -408,60 +349,6 @@
     <t>力量和耐力加成,后端计算后直接加在玩家数据的攻击和血量中</t>
   </si>
   <si>
-    <t>LUCIFER</t>
-  </si>
-  <si>
-    <t>LILITH</t>
-  </si>
-  <si>
-    <t>AZAZEL</t>
-  </si>
-  <si>
-    <t>MASTEMA</t>
-  </si>
-  <si>
-    <t>ALASTOR</t>
-  </si>
-  <si>
-    <t>BEHEMOTH</t>
-  </si>
-  <si>
-    <t>SAMAEL</t>
-  </si>
-  <si>
-    <t>BEELZEBUB</t>
-  </si>
-  <si>
-    <t>PHELES</t>
-  </si>
-  <si>
-    <t>MEPHISTO</t>
-  </si>
-  <si>
-    <t>MOLOCH</t>
-  </si>
-  <si>
-    <t>SURIEL</t>
-  </si>
-  <si>
-    <t>MAMMON</t>
-  </si>
-  <si>
-    <t>ABADON</t>
-  </si>
-  <si>
-    <t>BELPHEGOR</t>
-  </si>
-  <si>
-    <t>MELILIM</t>
-  </si>
-  <si>
-    <t>RAHAB</t>
-  </si>
-  <si>
-    <t>MONET</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,142 +381,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,2</t>
-  </si>
-  <si>
-    <t>1,1,1,3</t>
-  </si>
-  <si>
-    <t>1,1,1,4</t>
-  </si>
-  <si>
-    <t>1,1,1,5</t>
-  </si>
-  <si>
-    <t>1,1,1,6</t>
-  </si>
-  <si>
-    <t>1,1,1,7</t>
-  </si>
-  <si>
-    <t>1,1,1,8</t>
-  </si>
-  <si>
-    <t>1,1,1,9</t>
-  </si>
-  <si>
-    <t>1,1,1,10</t>
-  </si>
-  <si>
-    <t>1,1,1,11</t>
-  </si>
-  <si>
-    <t>1,1,1,12</t>
-  </si>
-  <si>
-    <t>1,1,1,13</t>
-  </si>
-  <si>
-    <t>1,1,1,14</t>
-  </si>
-  <si>
-    <t>1,1,1,15</t>
-  </si>
-  <si>
-    <t>1,1,1,16</t>
-  </si>
-  <si>
-    <t>1,1,1,17</t>
-  </si>
-  <si>
-    <t>1,1,1,18</t>
-  </si>
-  <si>
-    <t>string,float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldCol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kv_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:Sword,2:Magic,3:Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
+    <t>#注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,9 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1415,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N24" sqref="A24:XFD49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1427,1265 +1228,945 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="5" max="5" width="49" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="9" style="3"/>
-    <col min="15" max="15" width="11.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="15" max="15" width="24" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="18" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="52"/>
       <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>155</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B4" s="51">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51">
+        <v>3</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51">
+        <v>1</v>
+      </c>
+      <c r="J4" s="51">
+        <v>9</v>
+      </c>
+      <c r="K4" s="52">
+        <v>15</v>
+      </c>
+      <c r="L4" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="51">
+        <v>1</v>
+      </c>
+      <c r="G5" s="51">
+        <v>3</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <v>1</v>
+      </c>
+      <c r="J5" s="51">
+        <v>9</v>
+      </c>
+      <c r="K5" s="52">
+        <v>15</v>
+      </c>
+      <c r="L5" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="52">
+        <v>1</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="51">
+        <v>2</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="51">
+        <v>2</v>
+      </c>
+      <c r="G6" s="51">
+        <v>3</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+      <c r="I6" s="51">
+        <v>1</v>
+      </c>
+      <c r="J6" s="51">
+        <v>9</v>
+      </c>
+      <c r="K6" s="52">
+        <v>15</v>
+      </c>
+      <c r="L6" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="52">
+        <v>1</v>
+      </c>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B7" s="51">
+        <v>3</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="51">
+        <v>3</v>
+      </c>
+      <c r="G7" s="51">
+        <v>3</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51">
+        <v>1</v>
+      </c>
+      <c r="J7" s="51">
+        <v>10</v>
+      </c>
+      <c r="K7" s="52">
+        <v>15</v>
+      </c>
+      <c r="L7" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="52">
+        <v>0</v>
+      </c>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B8" s="51">
+        <v>4</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="51">
+        <v>4</v>
+      </c>
+      <c r="G8" s="51">
+        <v>3</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <v>1</v>
+      </c>
+      <c r="J8" s="51">
+        <v>10</v>
+      </c>
+      <c r="K8" s="52">
+        <v>15</v>
+      </c>
+      <c r="L8" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="52">
+        <v>4</v>
+      </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="51">
+        <v>5</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="51">
+        <v>5</v>
+      </c>
+      <c r="G9" s="51">
+        <v>3</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <v>1</v>
+      </c>
+      <c r="J9" s="51">
+        <v>10</v>
+      </c>
+      <c r="K9" s="52">
+        <v>15</v>
+      </c>
+      <c r="L9" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="52">
+        <v>5</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="51">
+        <v>6</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="51">
+        <v>6</v>
+      </c>
+      <c r="G10" s="51">
+        <v>3</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51">
+        <v>1</v>
+      </c>
+      <c r="J10" s="52">
+        <v>14</v>
+      </c>
+      <c r="K10" s="52">
+        <v>0</v>
+      </c>
+      <c r="L10" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="52">
+        <v>6</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="51">
+        <v>7</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="51">
+        <v>7</v>
+      </c>
+      <c r="G11" s="51">
+        <v>5</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="J11" s="52">
+        <v>14</v>
+      </c>
+      <c r="K11" s="52">
+        <v>6</v>
+      </c>
+      <c r="L11" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="52">
+        <v>7</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B12" s="51">
+        <v>8</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="51">
+        <v>8</v>
+      </c>
+      <c r="G12" s="51">
+        <v>3</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
+      <c r="I12" s="51">
+        <v>1</v>
+      </c>
+      <c r="J12" s="52">
+        <v>14</v>
+      </c>
+      <c r="K12" s="52">
+        <v>2</v>
+      </c>
+      <c r="L12" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="52">
+        <v>6</v>
+      </c>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="51">
+        <v>9</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="51">
+        <v>9</v>
+      </c>
+      <c r="G13" s="51">
+        <v>5</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0</v>
+      </c>
+      <c r="I13" s="51">
+        <v>1</v>
+      </c>
+      <c r="J13" s="51">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K13" s="52">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L13" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="52">
+        <v>7</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B14" s="51">
+        <v>10</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="51">
+        <v>10</v>
+      </c>
+      <c r="G14" s="51">
+        <v>3</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0</v>
+      </c>
+      <c r="I14" s="51">
+        <v>1</v>
+      </c>
+      <c r="J14" s="51">
+        <v>13</v>
+      </c>
+      <c r="K14" s="52">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="P3" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q3" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="T3" s="54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="R4" s="49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="O5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="1">
+      <c r="L14" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="52">
+        <v>4</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="51">
+        <v>11</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="51">
+        <v>11</v>
+      </c>
+      <c r="G15" s="51">
+        <v>3</v>
+      </c>
+      <c r="H15" s="51">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="I15" s="51">
+        <v>1</v>
+      </c>
+      <c r="J15" s="51">
+        <v>13</v>
+      </c>
+      <c r="K15" s="52">
+        <v>5</v>
+      </c>
+      <c r="L15" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="52">
+        <v>5</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B16" s="51">
+        <v>12</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E16" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="51">
+        <v>12</v>
+      </c>
+      <c r="G16" s="51">
+        <v>3</v>
+      </c>
+      <c r="H16" s="51">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I16" s="51">
+        <v>1</v>
+      </c>
+      <c r="J16" s="51">
+        <v>12</v>
+      </c>
+      <c r="K16" s="52">
+        <v>7</v>
+      </c>
+      <c r="L16" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="52">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="51">
+        <v>13</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="51">
+        <v>13</v>
+      </c>
+      <c r="G17" s="51">
+        <v>3</v>
+      </c>
+      <c r="H17" s="51">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="I17" s="51">
+        <v>1</v>
+      </c>
+      <c r="J17" s="51">
+        <v>11</v>
+      </c>
+      <c r="K17" s="52">
+        <v>1</v>
+      </c>
+      <c r="L17" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="52">
+        <v>3</v>
+      </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="51">
+        <v>14</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="51">
+        <v>14</v>
+      </c>
+      <c r="G18" s="51">
+        <v>3</v>
+      </c>
+      <c r="H18" s="51">
+        <v>0</v>
+      </c>
+      <c r="I18" s="51">
+        <v>1</v>
+      </c>
+      <c r="J18" s="51">
+        <v>11</v>
+      </c>
+      <c r="K18" s="52">
+        <v>2</v>
+      </c>
+      <c r="L18" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="52">
+        <v>4</v>
+      </c>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="51">
         <v>15</v>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="C19" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="51">
+        <v>15</v>
+      </c>
+      <c r="G19" s="51">
+        <v>3</v>
+      </c>
+      <c r="H19" s="51">
         <v>0</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="I19" s="51">
+        <v>1</v>
+      </c>
+      <c r="J19" s="51">
+        <v>12</v>
+      </c>
+      <c r="K19" s="52">
+        <v>8</v>
+      </c>
+      <c r="L19" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="52">
+        <v>5</v>
+      </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="51">
+        <v>16</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="51">
+        <v>16</v>
+      </c>
+      <c r="G20" s="51">
         <v>3</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="H20" s="51">
+        <v>0</v>
+      </c>
+      <c r="I20" s="51">
+        <v>1</v>
+      </c>
+      <c r="J20" s="51">
+        <v>12</v>
+      </c>
+      <c r="K20" s="51">
         <v>4</v>
       </c>
-      <c r="R6" s="3">
-        <v>5</v>
-      </c>
-      <c r="S6" t="s">
-        <v>164</v>
-      </c>
-      <c r="T6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="L20" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="52">
+        <v>0</v>
+      </c>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="51">
+        <v>17</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="51">
+        <v>17</v>
+      </c>
+      <c r="G21" s="51">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H21" s="51">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3">
-        <v>15</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="I21" s="51">
+        <v>1</v>
+      </c>
+      <c r="J21" s="51">
+        <v>12</v>
+      </c>
+      <c r="K21" s="52">
         <v>3</v>
       </c>
-      <c r="Q7" s="3">
-        <v>4</v>
-      </c>
-      <c r="R7" s="3">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s">
-        <v>164</v>
-      </c>
-      <c r="T7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B8" s="1">
+      <c r="L21" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="52">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3">
-        <v>15</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s">
-        <v>164</v>
-      </c>
-      <c r="T8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="3">
-        <v>15</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10</v>
-      </c>
-      <c r="K10" s="3">
-        <v>15</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4</v>
-      </c>
-      <c r="N10" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
-        <v>5</v>
-      </c>
-      <c r="S10" t="s">
-        <v>164</v>
-      </c>
-      <c r="T10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>15</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5</v>
-      </c>
-      <c r="N11" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>4</v>
-      </c>
-      <c r="R11" s="3">
-        <v>5</v>
-      </c>
-      <c r="S11" t="s">
-        <v>164</v>
-      </c>
-      <c r="T11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>6</v>
-      </c>
-      <c r="N12" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s">
-        <v>164</v>
-      </c>
-      <c r="T12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>14</v>
-      </c>
-      <c r="K13" s="3">
-        <v>6</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>7</v>
-      </c>
-      <c r="N13" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>4</v>
-      </c>
-      <c r="R13" s="3">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s">
-        <v>164</v>
-      </c>
-      <c r="T13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>14</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6</v>
-      </c>
-      <c r="N14" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>5</v>
-      </c>
-      <c r="S14" t="s">
-        <v>164</v>
-      </c>
-      <c r="T14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B15" s="1">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>13</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7</v>
-      </c>
-      <c r="N15" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s">
-        <v>164</v>
-      </c>
-      <c r="T15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>13</v>
-      </c>
-      <c r="K16" s="3">
-        <v>4</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>4</v>
-      </c>
-      <c r="N16" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>4</v>
-      </c>
-      <c r="R16" s="3">
-        <v>5</v>
-      </c>
-      <c r="S16" t="s">
-        <v>164</v>
-      </c>
-      <c r="T16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B17" s="1">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>13</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5</v>
-      </c>
-      <c r="N17" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
-        <v>5</v>
-      </c>
-      <c r="S17" t="s">
-        <v>164</v>
-      </c>
-      <c r="T17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B18" s="1">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>12</v>
-      </c>
-      <c r="K18" s="3">
-        <v>7</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3</v>
-      </c>
-      <c r="N18" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s">
-        <v>164</v>
-      </c>
-      <c r="T18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B19" s="1">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="2">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="N19" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>4</v>
-      </c>
-      <c r="R19" s="3">
-        <v>5</v>
-      </c>
-      <c r="S19" t="s">
-        <v>164</v>
-      </c>
-      <c r="T19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B20" s="1">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>4</v>
-      </c>
-      <c r="N20" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
-        <v>5</v>
-      </c>
-      <c r="S20" t="s">
-        <v>164</v>
-      </c>
-      <c r="T20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B21" s="1">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>12</v>
-      </c>
-      <c r="K21" s="3">
-        <v>8</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>5</v>
-      </c>
-      <c r="N21" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s">
-        <v>164</v>
-      </c>
-      <c r="T21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B22" s="1">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="2">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>12</v>
-      </c>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5</v>
-      </c>
-      <c r="S22" t="s">
-        <v>164</v>
-      </c>
-      <c r="T22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B23" s="1">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="2">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>12</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2</v>
-      </c>
-      <c r="N23" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
-        <v>5</v>
-      </c>
-      <c r="S23" t="s">
-        <v>164</v>
-      </c>
-      <c r="T23" t="s">
-        <v>165</v>
-      </c>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2714,7 +2195,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="H1" s="18" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I1" s="19">
         <v>50</v>
@@ -2761,24 +2242,24 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="22">
         <v>1</v>
@@ -2816,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -2868,16 +2349,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F4" s="16">
         <v>50</v>
@@ -2922,16 +2403,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F5" s="16">
         <v>5</v>
@@ -2974,16 +2455,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F6" s="16">
         <v>5</v>
@@ -3028,16 +2509,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F7" s="16">
         <v>5</v>
@@ -3080,16 +2561,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F8" s="16">
         <v>5</v>
@@ -3132,16 +2613,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F9" s="16">
         <v>5</v>
@@ -3184,16 +2665,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -3246,14 +2727,14 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="28" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E13" s="33">
         <f>M14</f>
@@ -3276,7 +2757,7 @@
         <v>1200</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M13" s="37">
         <v>1</v>
@@ -3299,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E14" s="15">
         <f>M16</f>
@@ -3328,7 +2809,7 @@
         <v>0.01</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M14" s="40">
         <v>20</v>
@@ -3351,13 +2832,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E15" s="15">
         <v>0.15</v>
@@ -3375,7 +2856,7 @@
         <v>0.01</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M15" s="40">
         <v>3</v>
@@ -3398,13 +2879,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E16" s="15">
         <v>0.15</v>
@@ -3422,7 +2903,7 @@
         <v>0.01</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M16" s="43">
         <f>M15/M14</f>
@@ -3450,13 +2931,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E17" s="15">
         <v>0.15</v>
@@ -3485,13 +2966,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E18" s="7">
         <v>0.15</v>
@@ -3511,7 +2992,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -3519,24 +3000,24 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="50"/>
@@ -3547,13 +3028,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="48"/>
@@ -3564,13 +3045,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -3579,23 +3060,23 @@
       <c r="I25" s="48"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
+      <c r="A27" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="49"/>
     </row>
   </sheetData>

--- a/DataTable/bin/Debug/Excel/Hero.xlsx
+++ b/DataTable/bin/Debug/Excel/Hero.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A2761-8633-419D-954A-B78A6CE37A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,14 +429,78 @@
   </si>
   <si>
     <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,6 +907,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,7 +959,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -968,23 +1034,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1020,23 +1069,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1212,14 +1244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="52"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1231,158 +1263,185 @@
     <col min="10" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="55" customFormat="1">
+      <c r="A1" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="52" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L3" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M3" s="51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="51" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="C4" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M4" s="51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="51">
+    <row r="5" spans="1:13">
+      <c r="B5" s="51">
         <v>0</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="C5" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="51">
+      <c r="D5" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="51">
         <v>0</v>
-      </c>
-      <c r="G4" s="51">
-        <v>3</v>
-      </c>
-      <c r="H4" s="51">
-        <v>0</v>
-      </c>
-      <c r="I4" s="51">
-        <v>1</v>
-      </c>
-      <c r="J4" s="51">
-        <v>9</v>
-      </c>
-      <c r="K4" s="52">
-        <v>15</v>
-      </c>
-      <c r="L4" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="51">
-        <v>1</v>
       </c>
       <c r="G5" s="51">
         <v>3</v>
@@ -1403,24 +1462,24 @@
         <v>1</v>
       </c>
       <c r="M5" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="51">
         <v>3</v>
@@ -1444,21 +1503,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="B7" s="51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="51">
         <v>3</v>
@@ -1470,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="52">
         <v>15</v>
@@ -1479,24 +1538,24 @@
         <v>1</v>
       </c>
       <c r="M7" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="51">
         <v>3</v>
@@ -1517,24 +1576,24 @@
         <v>1</v>
       </c>
       <c r="M8" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="51">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="51">
-        <v>5</v>
-      </c>
       <c r="C9" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="51">
         <v>3</v>
@@ -1555,24 +1614,24 @@
         <v>1</v>
       </c>
       <c r="M9" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="51">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="51">
-        <v>6</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="51">
         <v>3</v>
@@ -1583,37 +1642,37 @@
       <c r="I10" s="51">
         <v>1</v>
       </c>
-      <c r="J10" s="52">
-        <v>14</v>
+      <c r="J10" s="51">
+        <v>10</v>
       </c>
       <c r="K10" s="52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M10" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="51">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="51">
-        <v>7</v>
-      </c>
       <c r="C11" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="51">
         <v>0</v>
@@ -1625,33 +1684,33 @@
         <v>14</v>
       </c>
       <c r="K11" s="52">
+        <v>0</v>
+      </c>
+      <c r="L11" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="52">
         <v>6</v>
       </c>
-      <c r="L11" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="52">
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="51">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="51">
-        <v>8</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="51">
         <v>0</v>
@@ -1663,33 +1722,33 @@
         <v>14</v>
       </c>
       <c r="K12" s="52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L12" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M12" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" s="51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="51">
         <v>0</v>
@@ -1697,37 +1756,37 @@
       <c r="I13" s="51">
         <v>1</v>
       </c>
-      <c r="J13" s="51">
-        <v>13</v>
+      <c r="J13" s="52">
+        <v>14</v>
       </c>
       <c r="K13" s="52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="51">
         <v>0</v>
@@ -1739,30 +1798,30 @@
         <v>13</v>
       </c>
       <c r="K14" s="52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="51">
         <v>3</v>
@@ -1777,30 +1836,30 @@
         <v>13</v>
       </c>
       <c r="K15" s="52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="51">
         <v>3</v>
@@ -1812,33 +1871,33 @@
         <v>1</v>
       </c>
       <c r="J16" s="51">
+        <v>13</v>
+      </c>
+      <c r="K16" s="52">
+        <v>5</v>
+      </c>
+      <c r="L16" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="51">
         <v>12</v>
       </c>
-      <c r="K16" s="52">
-        <v>7</v>
-      </c>
-      <c r="L16" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="51">
-        <v>13</v>
-      </c>
       <c r="C17" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="51">
         <v>3</v>
@@ -1850,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" s="52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L17" s="52" t="b">
         <v>1</v>
@@ -1862,21 +1921,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13">
       <c r="B18" s="51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="51">
         <v>3</v>
@@ -1891,30 +1950,30 @@
         <v>11</v>
       </c>
       <c r="K18" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M18" s="52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="51">
         <v>3</v>
@@ -1926,33 +1985,33 @@
         <v>1</v>
       </c>
       <c r="J19" s="51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L19" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M19" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="51">
         <v>3</v>
@@ -1966,31 +2025,31 @@
       <c r="J20" s="51">
         <v>12</v>
       </c>
-      <c r="K20" s="51">
-        <v>4</v>
+      <c r="K20" s="52">
+        <v>8</v>
       </c>
       <c r="L20" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M20" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="51">
         <v>3</v>
@@ -2004,13 +2063,51 @@
       <c r="J21" s="51">
         <v>12</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="51">
+        <v>4</v>
+      </c>
+      <c r="L21" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="51">
+        <v>17</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="51">
+        <v>17</v>
+      </c>
+      <c r="G22" s="51">
         <v>3</v>
       </c>
-      <c r="L21" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="52">
+      <c r="H22" s="51">
+        <v>0</v>
+      </c>
+      <c r="I22" s="51">
+        <v>1</v>
+      </c>
+      <c r="J22" s="51">
+        <v>12</v>
+      </c>
+      <c r="K22" s="52">
+        <v>3</v>
+      </c>
+      <c r="L22" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="52">
         <v>2</v>
       </c>
     </row>
@@ -2022,14 +2119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -2039,7 +2136,7 @@
     <col min="6" max="17" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="H1" s="18" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +2183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" s="31" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3" s="29">
         <v>0</v>
       </c>
@@ -2190,7 +2287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -2244,7 +2341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="A5" s="29">
         <v>2</v>
       </c>
@@ -2296,7 +2393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -2350,7 +2447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7" s="29">
         <v>4</v>
       </c>
@@ -2402,7 +2499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -2454,7 +2551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -2506,7 +2603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10" s="30">
         <v>7</v>
       </c>
@@ -2560,10 +2657,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
@@ -2571,7 +2668,7 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="A13" s="32" t="s">
         <v>32</v>
       </c>
@@ -2621,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14" s="15">
         <v>0</v>
       </c>
@@ -2673,7 +2770,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -2720,7 +2817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -2772,7 +2869,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="15">
         <v>3</v>
       </c>
@@ -2807,7 +2904,7 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="7">
         <v>4</v>
       </c>
@@ -2836,7 +2933,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2844,7 +2941,7 @@
       <c r="C21" s="11"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -2855,7 +2952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
@@ -2872,7 +2969,7 @@
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
@@ -2889,7 +2986,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
@@ -2905,24 +3002,24 @@
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
+    <row r="27" spans="1:17">
+      <c r="A27" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="49"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
+    <row r="28" spans="1:17">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="49"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
+    <row r="29" spans="1:17">
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="49"/>
     </row>
   </sheetData>

--- a/DataTable/bin/Debug/Excel/Hero.xlsx
+++ b/DataTable/bin/Debug/Excel/Hero.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,59 +440,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,13 +895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1245,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1263,86 +1244,86 @@
     <col min="10" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="55" customFormat="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="F1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="G1" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="J1" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="M1" s="51" t="s">
         <v>115</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="54" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="52" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M2" s="51" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1387,61 +1368,58 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="51">
         <v>0</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51">
         <v>3</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>20</v>
+      <c r="H4" s="51">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51">
+        <v>1</v>
+      </c>
+      <c r="J4" s="51">
+        <v>9</v>
+      </c>
+      <c r="K4" s="52">
+        <v>15</v>
+      </c>
+      <c r="L4" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F5" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="51">
         <v>3</v>
@@ -1462,24 +1440,24 @@
         <v>1</v>
       </c>
       <c r="M5" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="51">
         <v>3</v>
@@ -1505,19 +1483,19 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="51">
         <v>3</v>
@@ -1529,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" s="52">
         <v>15</v>
@@ -1538,24 +1516,24 @@
         <v>1</v>
       </c>
       <c r="M7" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="51">
         <v>3</v>
@@ -1576,24 +1554,24 @@
         <v>1</v>
       </c>
       <c r="M8" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="51">
         <v>3</v>
@@ -1614,24 +1592,24 @@
         <v>1</v>
       </c>
       <c r="M9" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" s="51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="51">
         <v>3</v>
@@ -1642,37 +1620,37 @@
       <c r="I10" s="51">
         <v>1</v>
       </c>
-      <c r="J10" s="51">
-        <v>10</v>
+      <c r="J10" s="52">
+        <v>14</v>
       </c>
       <c r="K10" s="52">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L10" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M10" s="52">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" s="51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E11" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="51">
         <v>0</v>
@@ -1684,33 +1662,33 @@
         <v>14</v>
       </c>
       <c r="K11" s="52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L11" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="52">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="51">
         <v>0</v>
@@ -1722,33 +1700,33 @@
         <v>14</v>
       </c>
       <c r="K12" s="52">
+        <v>2</v>
+      </c>
+      <c r="L12" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="52">
         <v>6</v>
-      </c>
-      <c r="L12" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="52">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="51">
         <v>0</v>
@@ -1756,37 +1734,37 @@
       <c r="I13" s="51">
         <v>1</v>
       </c>
-      <c r="J13" s="52">
-        <v>14</v>
+      <c r="J13" s="51">
+        <v>13</v>
       </c>
       <c r="K13" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="52">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="51">
         <v>0</v>
@@ -1798,30 +1776,30 @@
         <v>13</v>
       </c>
       <c r="K14" s="52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="52">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="51">
         <v>3</v>
@@ -1836,30 +1814,30 @@
         <v>13</v>
       </c>
       <c r="K15" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="51">
         <v>3</v>
@@ -1871,33 +1849,33 @@
         <v>1</v>
       </c>
       <c r="J16" s="51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L16" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M16" s="52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="51">
         <v>3</v>
@@ -1909,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L17" s="52" t="b">
         <v>1</v>
@@ -1923,19 +1901,19 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="51">
         <v>3</v>
@@ -1950,30 +1928,30 @@
         <v>11</v>
       </c>
       <c r="K18" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M18" s="52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="51">
         <v>3</v>
@@ -1985,33 +1963,33 @@
         <v>1</v>
       </c>
       <c r="J19" s="51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L19" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M19" s="52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="51">
         <v>3</v>
@@ -2025,31 +2003,31 @@
       <c r="J20" s="51">
         <v>12</v>
       </c>
-      <c r="K20" s="52">
-        <v>8</v>
+      <c r="K20" s="51">
+        <v>4</v>
       </c>
       <c r="L20" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M20" s="52">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" s="51">
         <v>3</v>
@@ -2063,51 +2041,13 @@
       <c r="J21" s="51">
         <v>12</v>
       </c>
-      <c r="K21" s="51">
-        <v>4</v>
+      <c r="K21" s="52">
+        <v>3</v>
       </c>
       <c r="L21" s="52" t="b">
         <v>1</v>
       </c>
       <c r="M21" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="51">
-        <v>17</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="51">
-        <v>17</v>
-      </c>
-      <c r="G22" s="51">
-        <v>3</v>
-      </c>
-      <c r="H22" s="51">
-        <v>0</v>
-      </c>
-      <c r="I22" s="51">
-        <v>1</v>
-      </c>
-      <c r="J22" s="51">
-        <v>12</v>
-      </c>
-      <c r="K22" s="52">
-        <v>3</v>
-      </c>
-      <c r="L22" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="52">
         <v>2</v>
       </c>
     </row>
@@ -3003,23 +2943,23 @@
       <c r="I25" s="48"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="49"/>
     </row>
   </sheetData>
